--- a/TEST/Pharma_list.xlsx
+++ b/TEST/Pharma_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Neodocs\Data\Pharma_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Neodocs\Data\Pharma_analysis\TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD3D05C4-8059-4C76-A80E-F814CFF25037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D2ADFC-068B-408F-A940-6935C15D95E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A3D3FE85-8EEC-4249-8204-038B7FC65311}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>pharma_name</t>
   </si>
@@ -45,9 +45,6 @@
     <t>alembic</t>
   </si>
   <si>
-    <t>lupin_hb</t>
-  </si>
-  <si>
     <t>mankind_zesteva</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>'org_access_codes/alembic-uacr.json'</t>
   </si>
   <si>
-    <t>'org_access_codes/lupin-hb.json'</t>
-  </si>
-  <si>
     <t>'org_access_codes/mankind-zesteva-hb.json'</t>
   </si>
   <si>
@@ -84,12 +78,6 @@
     <t>b894153c-48f9-49bb-b64f-7428554272b7</t>
   </si>
   <si>
-    <t>02c6bc8e-9395-4cff-80cc-af0df4f951af</t>
-  </si>
-  <si>
-    <t>lupiheme</t>
-  </si>
-  <si>
     <t>507df2a6-c548-4147-adc6-2360ea227b08</t>
   </si>
   <si>
@@ -103,6 +91,15 @@
   </si>
   <si>
     <t>862c3147-6bd0-483d-af60-be4c71663eb9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emcure gennova	</t>
+  </si>
+  <si>
+    <t>04fc2868-6cff-4ea7-846a-a01dc3fc80ba</t>
+  </si>
+  <si>
+    <t>org_access_codes/emcure-gennova.json'</t>
   </si>
 </sst>
 </file>
@@ -146,11 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,7 +466,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,13 +494,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -510,10 +508,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -521,13 +519,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -535,13 +533,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -549,27 +547,25 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>